--- a/data/trans_orig/CoTrAQ-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>20888</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13242</v>
+        <v>13512</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31411</v>
+        <v>33790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1183939888422796</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07505380484674284</v>
+        <v>0.0765837090494169</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1780348685575645</v>
+        <v>0.19151696453374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -763,19 +763,19 @@
         <v>25232</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16670</v>
+        <v>17397</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35790</v>
+        <v>36349</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1972534709123813</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1303198979264195</v>
+        <v>0.1360034225501939</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2797890530729585</v>
+        <v>0.2841574751026747</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -784,19 +784,19 @@
         <v>46121</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33459</v>
+        <v>34823</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60816</v>
+        <v>59710</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1515385076481895</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1099354770325982</v>
+        <v>0.1144180490601955</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.199823628858293</v>
+        <v>0.1961890248435594</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>23848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15907</v>
+        <v>15603</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33390</v>
+        <v>34279</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1351691726631012</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09015995882918007</v>
+        <v>0.08843705571487455</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.18925188173371</v>
+        <v>0.1942905167002958</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -834,19 +834,19 @@
         <v>15592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9429</v>
+        <v>9157</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23390</v>
+        <v>23954</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1218889640922139</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0737086542407205</v>
+        <v>0.07158374817163903</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1828486375545074</v>
+        <v>0.1872626441146864</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -855,19 +855,19 @@
         <v>39440</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28517</v>
+        <v>28727</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54037</v>
+        <v>51991</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1295875214631492</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09369744203573588</v>
+        <v>0.09438860107324031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1775498800066838</v>
+        <v>0.1708271536595388</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>131695</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>120234</v>
+        <v>118296</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>141964</v>
+        <v>142642</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7464368384946192</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6814731693359748</v>
+        <v>0.6704905453167542</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.804640285688904</v>
+        <v>0.8084796398120281</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>81</v>
@@ -905,19 +905,19 @@
         <v>87094</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>76238</v>
+        <v>74711</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>97400</v>
+        <v>97270</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6808575649954048</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5959902832624582</v>
+        <v>0.5840551722961905</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7614247379096829</v>
+        <v>0.7604104900434692</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>209</v>
@@ -926,19 +926,19 @@
         <v>218789</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>200861</v>
+        <v>201894</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>233452</v>
+        <v>233082</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7188739708886613</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6599659231431173</v>
+        <v>0.6633605638338292</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7670507481931212</v>
+        <v>0.7658366050494196</v>
       </c>
     </row>
     <row r="7">
@@ -1030,19 +1030,19 @@
         <v>136443</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>115894</v>
+        <v>114758</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>158912</v>
+        <v>160166</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1539576735740446</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1307716634314291</v>
+        <v>0.1294894578014855</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1793115908137066</v>
+        <v>0.1807258952248436</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>91</v>
@@ -1051,19 +1051,19 @@
         <v>99783</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>82429</v>
+        <v>81372</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>120082</v>
+        <v>120106</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1824399286060654</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.150709341017385</v>
+        <v>0.1487773345707265</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2195536467773176</v>
+        <v>0.2195970294136384</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>220</v>
@@ -1072,19 +1072,19 @@
         <v>236226</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>209774</v>
+        <v>205146</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>266032</v>
+        <v>265082</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1648272739882368</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1463705672637992</v>
+        <v>0.1431414468933228</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1856243298427943</v>
+        <v>0.1849617393957373</v>
       </c>
     </row>
     <row r="9">
@@ -1101,19 +1101,19 @@
         <v>157287</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>134356</v>
+        <v>133751</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>182440</v>
+        <v>182912</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1774775862626102</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1516027920065496</v>
+        <v>0.1509200375603806</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2058600534074689</v>
+        <v>0.2063925001021571</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>109</v>
@@ -1122,19 +1122,19 @@
         <v>115056</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>96248</v>
+        <v>95907</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>135055</v>
+        <v>134106</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2103635466689517</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.175976969153457</v>
+        <v>0.1753523751949033</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2469300534115368</v>
+        <v>0.2451946809701974</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>258</v>
@@ -1143,19 +1143,19 @@
         <v>272342</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>245086</v>
+        <v>241813</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>304758</v>
+        <v>302415</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1900277599919028</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1710092910485874</v>
+        <v>0.1687256713145937</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2126458225779251</v>
+        <v>0.211011006164355</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>592505</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>563555</v>
+        <v>562968</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>620854</v>
+        <v>621009</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6685647401633452</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6358982171483788</v>
+        <v>0.6352351716868794</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7005519415320879</v>
+        <v>0.7007267687780483</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>311</v>
@@ -1193,19 +1193,19 @@
         <v>332098</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>309129</v>
+        <v>309617</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>355552</v>
+        <v>354695</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6071965247249829</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5652003078497535</v>
+        <v>0.5660925918100229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.650078608876216</v>
+        <v>0.6485114088365982</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>872</v>
@@ -1214,19 +1214,19 @@
         <v>924604</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>885913</v>
+        <v>885397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>960823</v>
+        <v>959167</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6451449660198604</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6181486588926325</v>
+        <v>0.6177883978395472</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6704170587806857</v>
+        <v>0.6692615935793123</v>
       </c>
     </row>
     <row r="11">
@@ -1318,19 +1318,19 @@
         <v>24808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16175</v>
+        <v>15447</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37969</v>
+        <v>36540</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07995745959368551</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05213300017788772</v>
+        <v>0.04978571152209024</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1223782822336519</v>
+        <v>0.1177717002404996</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1339,19 +1339,19 @@
         <v>28552</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19366</v>
+        <v>19592</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42326</v>
+        <v>41636</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1263796108280905</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08571977731071283</v>
+        <v>0.086719088223916</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1873477213553921</v>
+        <v>0.1842919995294248</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>46</v>
@@ -1360,19 +1360,19 @@
         <v>53360</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39212</v>
+        <v>39978</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>70546</v>
+        <v>72471</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09951744325448689</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07313203224767985</v>
+        <v>0.0745596748377617</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1315704308325728</v>
+        <v>0.1351600292771828</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>34045</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24091</v>
+        <v>23861</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48247</v>
+        <v>48252</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1097285698139964</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07764726602478281</v>
+        <v>0.07690707493826403</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1555028006598284</v>
+        <v>0.1555184402382377</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1410,19 +1410,19 @@
         <v>27378</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18347</v>
+        <v>18583</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39973</v>
+        <v>39766</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1211846236333865</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08120742955769474</v>
+        <v>0.08225398839660183</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1769344677856691</v>
+        <v>0.1760152845303034</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -1431,19 +1431,19 @@
         <v>61423</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45066</v>
+        <v>46023</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77559</v>
+        <v>80365</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1145555806173746</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08404933966741325</v>
+        <v>0.08583362880997658</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1446500346020527</v>
+        <v>0.1498821189460886</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>251410</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>233718</v>
+        <v>235182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>264336</v>
+        <v>266180</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8103139705923181</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7532895220942982</v>
+        <v>0.7580070604250831</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8519747329451035</v>
+        <v>0.8579168357862406</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>153</v>
@@ -1481,19 +1481,19 @@
         <v>169992</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>155592</v>
+        <v>155340</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>182812</v>
+        <v>183188</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.752435765538523</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.688697026553084</v>
+        <v>0.6875812138914602</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8091821497669301</v>
+        <v>0.8108442264665973</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>383</v>
@@ -1502,19 +1502,19 @@
         <v>421402</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>399140</v>
+        <v>397112</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>440703</v>
+        <v>438745</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7859269761281384</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7444070443033691</v>
+        <v>0.7406255027232583</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8219226967681418</v>
+        <v>0.8182714733860473</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>182139</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>155009</v>
+        <v>157205</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>209634</v>
+        <v>209343</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1326644352680662</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1129038226647501</v>
+        <v>0.1145036336771614</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1526907489721081</v>
+        <v>0.152478850679211</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>137</v>
@@ -1627,19 +1627,19 @@
         <v>153567</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131344</v>
+        <v>130034</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>180077</v>
+        <v>179349</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1704832179232793</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1458121836195779</v>
+        <v>0.1443579796318962</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1999125155958644</v>
+        <v>0.1991052121637808</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>306</v>
@@ -1648,19 +1648,19 @@
         <v>335706</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>300042</v>
+        <v>302589</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>369631</v>
+        <v>376956</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1476471402046849</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1319616767481667</v>
+        <v>0.1330819821119638</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1625677437416075</v>
+        <v>0.1657890383033187</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>215180</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>186860</v>
+        <v>187580</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>243999</v>
+        <v>242329</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1567302834105332</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.136103422630068</v>
+        <v>0.1366276826957358</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1777214891330028</v>
+        <v>0.1765046565628378</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>149</v>
@@ -1698,19 +1698,19 @@
         <v>158026</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137465</v>
+        <v>135786</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>184724</v>
+        <v>181222</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1754326679226927</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1526076142001252</v>
+        <v>0.1507433550899795</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2050723083064196</v>
+        <v>0.2011839601579551</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>351</v>
@@ -1719,19 +1719,19 @@
         <v>373205</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>336371</v>
+        <v>339374</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>409471</v>
+        <v>410395</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1641396257817966</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.147939271768721</v>
+        <v>0.149260300092014</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1800894306424481</v>
+        <v>0.180495868441583</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>975611</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>937394</v>
+        <v>941250</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1009516</v>
+        <v>1010708</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7106052813214007</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6827692985815363</v>
+        <v>0.6855778135897946</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7353005008193122</v>
+        <v>0.7361684205800594</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>545</v>
@@ -1769,19 +1769,19 @@
         <v>589184</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>556351</v>
+        <v>561965</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>616825</v>
+        <v>618419</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6540841141540279</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6176340322029104</v>
+        <v>0.623867318387284</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6847699168816941</v>
+        <v>0.6865399298772948</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1464</v>
@@ -1790,19 +1790,19 @@
         <v>1564795</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1521125</v>
+        <v>1514379</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1612879</v>
+        <v>1610259</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6882132340135185</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6690067252433689</v>
+        <v>0.6660396324083178</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7093611538131139</v>
+        <v>0.708208556846294</v>
       </c>
     </row>
     <row r="19">
@@ -2133,19 +2133,19 @@
         <v>50105</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38746</v>
+        <v>39185</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62932</v>
+        <v>61432</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3545999428556315</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2742121896597975</v>
+        <v>0.2773206407610251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4453840045062822</v>
+        <v>0.4347688110606622</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -2154,19 +2154,19 @@
         <v>28055</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20869</v>
+        <v>20495</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36156</v>
+        <v>36562</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4058389248525967</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3018941969408339</v>
+        <v>0.2964850273961199</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5230337155048796</v>
+        <v>0.5289097824372009</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -2175,19 +2175,19 @@
         <v>78159</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64155</v>
+        <v>63999</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92402</v>
+        <v>92519</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3714326760977992</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3048808039095289</v>
+        <v>0.3041367719023423</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4391178279684889</v>
+        <v>0.4396710819574727</v>
       </c>
     </row>
     <row r="5">
@@ -2204,19 +2204,19 @@
         <v>29036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19624</v>
+        <v>20076</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39261</v>
+        <v>39710</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2054901921517305</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1388805273434539</v>
+        <v>0.1420788276108432</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.277855357057229</v>
+        <v>0.2810357572159712</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -2225,19 +2225,19 @@
         <v>15772</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9537</v>
+        <v>9898</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23794</v>
+        <v>23499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2281561385536801</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1379629913365475</v>
+        <v>0.1431843530643412</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3442008451016327</v>
+        <v>0.3399415128881473</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -2246,19 +2246,19 @@
         <v>44808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34188</v>
+        <v>32787</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57643</v>
+        <v>56734</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2129362774289104</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1624689020764946</v>
+        <v>0.1558123861935219</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2739327947021346</v>
+        <v>0.2696153922364368</v>
       </c>
     </row>
     <row r="6">
@@ -2275,19 +2275,19 @@
         <v>62159</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50877</v>
+        <v>50135</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>74745</v>
+        <v>73638</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.439909864992638</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3600656745652115</v>
+        <v>0.3548166480647643</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5289820173386878</v>
+        <v>0.5211509769824816</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -2296,19 +2296,19 @@
         <v>25301</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17816</v>
+        <v>18029</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33414</v>
+        <v>33115</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3660049365937232</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.257731632193793</v>
+        <v>0.2608053679802574</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4833594445159871</v>
+        <v>0.4790364270656969</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>82</v>
@@ -2317,19 +2317,19 @@
         <v>87460</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>73207</v>
+        <v>74298</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>101913</v>
+        <v>103110</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4156310464732904</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3478966467091291</v>
+        <v>0.3530832374466216</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4843164742119756</v>
+        <v>0.4900020332651974</v>
       </c>
     </row>
     <row r="7">
@@ -2421,19 +2421,19 @@
         <v>238083</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>212984</v>
+        <v>212495</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>267513</v>
+        <v>266605</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2578885807220746</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2307011425941673</v>
+        <v>0.2301723190567919</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2897667685949382</v>
+        <v>0.2887833682927263</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>203</v>
@@ -2442,19 +2442,19 @@
         <v>205308</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>182793</v>
+        <v>183121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>228694</v>
+        <v>229883</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3155953659416756</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2809858502049248</v>
+        <v>0.2814892437119746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.351542975211631</v>
+        <v>0.3533702367738846</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>421</v>
@@ -2463,19 +2463,19 @@
         <v>443392</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>404899</v>
+        <v>408613</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>478648</v>
+        <v>481252</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2817430032127138</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2572834237254466</v>
+        <v>0.2596440308140163</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3041457262910867</v>
+        <v>0.3058003962331171</v>
       </c>
     </row>
     <row r="9">
@@ -2492,19 +2492,19 @@
         <v>211501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>184457</v>
+        <v>184764</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>233920</v>
+        <v>240062</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2290954506641485</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1998014576898788</v>
+        <v>0.2001335900338474</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2533788609027368</v>
+        <v>0.2600317030326569</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>134</v>
@@ -2513,19 +2513,19 @@
         <v>137224</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>117703</v>
+        <v>118306</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>159062</v>
+        <v>159888</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2109377891368103</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1809299511723286</v>
+        <v>0.1818572380372201</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2445069228327313</v>
+        <v>0.2457761017273995</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>334</v>
@@ -2534,19 +2534,19 @@
         <v>348725</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>313554</v>
+        <v>313826</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>380895</v>
+        <v>380617</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2215895650413946</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.199240714239077</v>
+        <v>0.1994132761508956</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2420306905853849</v>
+        <v>0.2418540839234201</v>
       </c>
     </row>
     <row r="10">
@@ -2563,19 +2563,19 @@
         <v>473617</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>442209</v>
+        <v>439626</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>504633</v>
+        <v>503981</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.513015968613777</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4789953291125736</v>
+        <v>0.4761974615202825</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5466126957914266</v>
+        <v>0.545905636092157</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>299</v>
@@ -2584,19 +2584,19 @@
         <v>308011</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>282816</v>
+        <v>281428</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>333659</v>
+        <v>336204</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4734668449215141</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4347381096754421</v>
+        <v>0.4326044826450945</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5128923607604383</v>
+        <v>0.5168054234393964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>744</v>
@@ -2605,19 +2605,19 @@
         <v>781628</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>740392</v>
+        <v>741323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>822693</v>
+        <v>819482</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4966674317458916</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4704650168959709</v>
+        <v>0.4710565353378575</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5227612485760257</v>
+        <v>0.5207209606453478</v>
       </c>
     </row>
     <row r="11">
@@ -2709,19 +2709,19 @@
         <v>53897</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41364</v>
+        <v>40413</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>74353</v>
+        <v>69949</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1546811035102791</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1187139173080435</v>
+        <v>0.1159842775233494</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2133899984331213</v>
+        <v>0.2007510139778046</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>62</v>
@@ -2730,19 +2730,19 @@
         <v>64325</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50171</v>
+        <v>50972</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>80107</v>
+        <v>80038</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2085407186142185</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1626551283935394</v>
+        <v>0.1652500908611273</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2597046051311933</v>
+        <v>0.2594835365066822</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>109</v>
@@ -2751,19 +2751,19 @@
         <v>118222</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>97896</v>
+        <v>99551</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>138501</v>
+        <v>140798</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1799716976315687</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1490285945697992</v>
+        <v>0.1515484408370139</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.210843195104643</v>
+        <v>0.2143398344264805</v>
       </c>
     </row>
     <row r="13">
@@ -2780,19 +2780,19 @@
         <v>62635</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50331</v>
+        <v>48379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80025</v>
+        <v>79082</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1797600775877753</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1444467070812448</v>
+        <v>0.1388466964069265</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2296667558113561</v>
+        <v>0.2269612129097382</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -2801,19 +2801,19 @@
         <v>64946</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51827</v>
+        <v>51384</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79231</v>
+        <v>80288</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2105532385893534</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1680230041013775</v>
+        <v>0.1665848440876447</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2568672706396395</v>
+        <v>0.2602937869895555</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>122</v>
@@ -2822,19 +2822,19 @@
         <v>127581</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108885</v>
+        <v>108665</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>150571</v>
+        <v>149443</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1942194704946785</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1657584620712687</v>
+        <v>0.1654238552716531</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2292180204041864</v>
+        <v>0.2275009074948852</v>
       </c>
     </row>
     <row r="14">
@@ -2851,19 +2851,19 @@
         <v>231906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>209449</v>
+        <v>212752</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>248990</v>
+        <v>250651</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6655588189019456</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6011094762987549</v>
+        <v>0.6105874883686461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7145894244554781</v>
+        <v>0.7193557441701753</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>172</v>
@@ -2872,19 +2872,19 @@
         <v>179182</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>160717</v>
+        <v>160464</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>196227</v>
+        <v>195204</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5809060427964281</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5210419848805096</v>
+        <v>0.5202224190766653</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6361660529069483</v>
+        <v>0.6328469600411164</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>387</v>
@@ -2893,19 +2893,19 @@
         <v>411088</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>385987</v>
+        <v>383992</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>436213</v>
+        <v>435503</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6258088318737528</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5875961940939235</v>
+        <v>0.5845603784640935</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6640570834798738</v>
+        <v>0.6629757930745757</v>
       </c>
     </row>
     <row r="15">
@@ -2997,19 +2997,19 @@
         <v>342084</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>306668</v>
+        <v>311757</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>376427</v>
+        <v>377833</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2421085440126096</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2170426304343734</v>
+        <v>0.2206443850515668</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2664144406369608</v>
+        <v>0.2674093174558486</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>293</v>
@@ -3018,19 +3018,19 @@
         <v>297689</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>272304</v>
+        <v>267029</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>327660</v>
+        <v>327312</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2895450619975465</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2648547583291896</v>
+        <v>0.2597238524237369</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3186968191357386</v>
+        <v>0.3183582059313204</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>605</v>
@@ -3039,19 +3039,19 @@
         <v>639773</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>597015</v>
+        <v>593422</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>683434</v>
+        <v>681587</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.262087817645849</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2445716983585706</v>
+        <v>0.2430999273278013</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2799739418510516</v>
+        <v>0.2792174326997353</v>
       </c>
     </row>
     <row r="17">
@@ -3068,19 +3068,19 @@
         <v>303172</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>273099</v>
+        <v>271285</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>333541</v>
+        <v>336993</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2145684745063549</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.193284374505557</v>
+        <v>0.1920009433598605</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.236061678563746</v>
+        <v>0.2385054919563151</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>215</v>
@@ -3089,19 +3089,19 @@
         <v>217942</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192294</v>
+        <v>187952</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>243520</v>
+        <v>245193</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2119801325802814</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1870335102560049</v>
+        <v>0.1828107549486248</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2368584191015046</v>
+        <v>0.2384860595432314</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>500</v>
@@ -3110,19 +3110,19 @@
         <v>521114</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>483559</v>
+        <v>478938</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>562991</v>
+        <v>559926</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2134783187825763</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1980935069525916</v>
+        <v>0.1962006237654153</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2306336528027694</v>
+        <v>0.2293778813775187</v>
       </c>
     </row>
     <row r="18">
@@ -3139,19 +3139,19 @@
         <v>767682</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>728771</v>
+        <v>730465</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>807761</v>
+        <v>807334</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5433229814810354</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5157840716158517</v>
+        <v>0.5169830607431372</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5716890399738911</v>
+        <v>0.5713865693336518</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>496</v>
@@ -3160,19 +3160,19 @@
         <v>512494</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>481005</v>
+        <v>481414</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>544284</v>
+        <v>546509</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.498474805422172</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4678463304957228</v>
+        <v>0.4682448494441072</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5293947976762352</v>
+        <v>0.5315588186497582</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1213</v>
@@ -3181,19 +3181,19 @@
         <v>1280176</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1228928</v>
+        <v>1233450</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1327711</v>
+        <v>1335990</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5244338635715747</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5034397715256274</v>
+        <v>0.5052920605975643</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5439069439911515</v>
+        <v>0.5472983355635723</v>
       </c>
     </row>
     <row r="19">
